--- a/similarities/split_global/harmonic_similarity_timestamps_321.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_321.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:00:31.340000', '0:00:33.520000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'Eb', 'Ab:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Db', 'C', 'F:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.070000', '0:00:09.130000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:39.282925', '0:00:45.378163')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=39.282925']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'A:min7'], ['G', 'C', 'G/3']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:03.180000', '0:01:06.100000'), ('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:02:08.760000', '0:02:14')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.259614', '0:00:27.476822'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=63.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=24.259614', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000'), ('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.300000', '0:00:12.960000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:min', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:09.060000', '0:00:17.506000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:01:30.980000', '0:01:46.960000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=9.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=90.98</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb'], ['Ab', 'Eb', 'Bb/3']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B'], ['A', 'E', 'B']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.702000', '0:00:10.952000'), ('0:00:25.942000', '0:00:29.102000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:14.402743', '0:00:19.871043'), ('0:00:35.080113', '0:00:43.578616')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=14.402743', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=35.080113']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>isophonics_117</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C', 'F', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:01.110561', '0:00:06.213665')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-117#t=1.110561</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:7', 'Bb', 'Bb:dim7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:7', 'Bb', 'Bb:dim7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:12.990000', '0:00:14.370000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:01.760000', '0:00:03.130000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.99</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.76</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Eb/3', 'F:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:20.996000', '0:00:24.398000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.968347', '0:00:21.586850')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-150#t=7.968347']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=107.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/E']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:40.040000', '0:00:45.760000')]</t>
+          <t>('0:01:19.040000', '0:01:37.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+          <t>('0:00:50.130000', '0:01:05.020000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=40.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:7/C', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:05.500000', '0:00:22.220000')]</t>
+          <t>('0:00:19.480000', '0:00:31.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:14.460000', '0:02:17.180000')]</t>
+          <t>('0:00:48.170328', '0:00:55.589104')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=5.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=19.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=134.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min'], ['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000'), ('0:01:14.500000', '0:01:20.420000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000'), ('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
